--- a/biology/Zoologie/Ace_Ventura_(série_de_films)/Ace_Ventura_(série_de_films).xlsx
+++ b/biology/Zoologie/Ace_Ventura_(série_de_films)/Ace_Ventura_(série_de_films).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ace Ventura est une série de films américains comprenant deux longs métrages : Ace Ventura, détective pour chiens et chats (1994) et Ace Ventura en Afrique (1995) ainsi qu'un téléfilm, Ace Ventura 3 (2009). Les deux premiers films mettent en vedette l'acteur Jim Carrey dans le rôle-titre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Ace Ventura, détective chiens et chats (1994)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Détective spécialisé dans la recherche d'animaux perdus, Ace Ventura habite un appartement devenu une véritable arche de Noé où se côtoient caméléon, perroquet, canari et mouffette. Lorsque l'équipe de football américain des Dolphins de Miami perd sa mascotte, le dauphin Flocon de Neige, c'est à Ace Ventura que la charmante Melissa Robinson fait appel. Dès les premiers instants de l'enquête, Ace trouve un indice, une pierre précieuse qui appartenait à une chevalière mémoire du Super Bowl de 1984, que les Dolphins n'avaient pas gagné. Il s'attire très vite les foudres du lieutenant Einhorn, chef de la police.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ace Ventura en Afrique (1995)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parce qu'il n'a pas pu sauver un raton laveur perdu en haute montagne, Ace Ventura s'est retiré dans une lamaserie au Tibet. Mais, à la faveur d'une nouvelle mission, Ace Ventura part en Nibia, un pays imaginaire d'Afrique, mettre la main sur une chauve-souris blanche sacrée, Chickaka, disparue avant qu'un conflit n'éclate entre les tribus Wachati et Wachootoo.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Ace Ventura 3 (2008)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir résolu son affaire en Afrique, Ace Ventura est revenu à Miami et a fondé une famille. Il s'est marié avec l'ancienne chargée de presse de l'équipe des Dolphins de Miami, Melissa Robinson et a eu un fils : Junior. Or, un jour, Ace disparait mystérieusement, laissant derrière lui sa femme et son fils qu'elle élèvera seul. Douze ans plus tard, Melissa est devenue gardienne de zoo et Ace Junior a grandi, mais il a hérité de l'amour des animaux de son père et passe son temps à récupérer tous les animaux égarés qu'il trouve, au grand dam de sa mère souhaitant qu'il soit comme les autres et surtout ne voulant pas le perdre comme son mari, à propos duquel elle n'a jamais rien dit de ses activités à son fils.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,6 +652,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -639,7 +661,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ace_Ventura_(s%C3%A9rie_de_films)</t>
+          <t>Ace_Ventura_(série_de_films)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,6 +680,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
